--- a/市场/图片/数据表格.xlsx
+++ b/市场/图片/数据表格.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Industry-Frontier\市场\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Industry-Frontier\市场\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="行业市场规模" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
   <si>
     <t>2018E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,13 +555,25 @@
   </si>
   <si>
     <t>年末总人口(万人)</t>
+  </si>
+  <si>
+    <t>增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +598,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,10 +622,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -620,8 +639,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2855,15 +2875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I47"/>
+  <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -2879,16 +2899,38 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>2016</v>
       </c>
       <c r="C2">
         <v>2608.5</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>2012</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <f>K2/N2</f>
+        <v>23.762752677270136</v>
+      </c>
+      <c r="N2">
+        <v>6.3124000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2017</v>
       </c>
@@ -2907,37 +2949,173 @@
       <c r="H3">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>2013</v>
+      </c>
+      <c r="K3">
+        <v>205.3</v>
+      </c>
+      <c r="L3">
+        <f>(K3/K2)</f>
+        <v>1.3686666666666667</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M18" si="0">K3/N3</f>
+        <v>33.136419394408939</v>
+      </c>
+      <c r="N3">
+        <v>6.1955999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>3997.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>2014</v>
+      </c>
+      <c r="K4">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="1">(K4/K3)</f>
+        <v>1.3935703848027277</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>46.577884865850486</v>
+      </c>
+      <c r="N4">
+        <v>6.1424000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
         <v>4817.7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>2015</v>
+      </c>
+      <c r="K5">
+        <v>403.4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.4099965047186296</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>64.780318602261048</v>
+      </c>
+      <c r="N5">
+        <v>6.2271999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
         <v>5819.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>2016</v>
+      </c>
+      <c r="K6">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.5014873574615768</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>91.218505745395404</v>
+      </c>
+      <c r="N6">
+        <v>6.6401000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>828</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.3670133729569092</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>122.58131375190608</v>
+      </c>
+      <c r="N7">
+        <v>6.7546999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>1104</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>167.60539859417935</v>
+      </c>
+      <c r="N8">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>1428</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.2934782608695652</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>216.79393948594938</v>
+      </c>
+      <c r="N9">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>1798</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.2591036414565826</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>272.96603865247687</v>
+      </c>
+      <c r="N10">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="M11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -2956,8 +3134,30 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>1022.2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>161.93523857803689</v>
+      </c>
+      <c r="N12">
+        <v>6.3124000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>1728.6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>279.00445477435596</v>
+      </c>
+      <c r="N13">
+        <v>6.1955999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>2017</v>
       </c>
@@ -2976,40 +3176,100 @@
       <c r="I14">
         <v>154.1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>2283.4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>371.74394373534773</v>
+      </c>
+      <c r="N14">
+        <v>6.1424000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>3000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>481.75745118191162</v>
+      </c>
+      <c r="N15">
+        <v>6.2271999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>3813</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>574.23833978403934</v>
+      </c>
+      <c r="N16">
+        <v>6.6401000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>4817</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>713.13307770885456</v>
+      </c>
+      <c r="N17">
+        <v>6.7546999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <v>6000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>910.89890540314866</v>
+      </c>
+      <c r="N18">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19">
         <v>24.73</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="N19">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="N20">
+        <v>6.5869</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>7</v>
       </c>
@@ -3017,7 +3277,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -3025,7 +3285,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>19</v>
       </c>
@@ -3033,7 +3293,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -3041,7 +3301,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E25" t="s">
         <v>21</v>
       </c>
@@ -3049,22 +3309,22 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>2014</v>
       </c>
@@ -3072,7 +3332,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3080,7 +3340,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>2016</v>
       </c>
@@ -7495,7 +7755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>

--- a/市场/图片/数据表格.xlsx
+++ b/市场/图片/数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="行业市场规模" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="搜索指数" sheetId="3" r:id="rId3"/>
     <sheet name="专利" sheetId="5" r:id="rId4"/>
     <sheet name="价格" sheetId="4" r:id="rId5"/>
-    <sheet name="政策" sheetId="6" r:id="rId6"/>
-    <sheet name="社会环境" sheetId="7" r:id="rId7"/>
+    <sheet name="品牌" sheetId="8" r:id="rId6"/>
+    <sheet name="政策" sheetId="6" r:id="rId7"/>
+    <sheet name="社会环境" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
   <si>
     <t>2018E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +567,134 @@
   </si>
   <si>
     <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能家居全套价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧瑞博全屋智能改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15600（不包括安装费用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购/合作企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流智能产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insteon 诺基亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beddit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nest Labs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yap/Evi/Blink/Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米全套（具体内容见附录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔全套系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统~1.3w；灯光控制2~4w；常规经济型 8~10w；进口高档15~50w；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control4中控主机（不包括智能家居设备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2.3w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2877,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3573,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L182"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -7491,46 +7620,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D23"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4">
+        <v>36491</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2014</v>
       </c>
       <c r="C6">
         <v>1213.7</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2015</v>
       </c>
       <c r="C7">
         <v>1297.99</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>2016</v>
       </c>
@@ -7538,7 +7694,7 @@
         <v>1317.46</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>2017</v>
       </c>
@@ -7546,7 +7702,7 @@
         <v>1218.27</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2018</v>
       </c>
@@ -7554,7 +7710,7 @@
         <v>1089.79</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2019</v>
       </c>
@@ -7562,7 +7718,7 @@
         <v>961.69</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>2020</v>
       </c>
@@ -7642,6 +7798,111 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -7751,7 +8012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:L58"/>
   <sheetViews>

--- a/市场/图片/数据表格.xlsx
+++ b/市场/图片/数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8955" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="行业市场规模" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
   <si>
     <t>2018E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,74 @@
   </si>
   <si>
     <t>~2.3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-2018年中国智能家居行业相关政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住建部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《关于开展国家智慧城市试点工作的通知》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《物联网“十二五”发展规划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《2016年国务院政府工作报告》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《“十三五”国家战略性新兴产业发展规划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《信息通信行业发展规划物联网分册》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《关于进一步扩大和升级信息消费持续释放内需潜力的指导意见》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《促进新一代人工智能产业发展三年行动计划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入五年规划；物联网9大重点领域应用示范工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网6大重点领域应用示范工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设行业标准和示范性应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7622,7 +7690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7904,20 +7972,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>78</v>
       </c>
@@ -7928,7 +7996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -7939,7 +8007,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>81</v>
       </c>
@@ -7950,7 +8018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -7961,7 +8029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>83</v>
       </c>
@@ -7972,7 +8040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -7983,7 +8051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -7994,7 +8062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -8003,6 +8071,97 @@
       </c>
       <c r="D11" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>2012.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>2012.12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>2016.3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>2016.12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20">
+        <v>2017.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>2017.8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22">
+        <v>2017.12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
